--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ltf-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ltf-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>15.8521896325711</v>
+        <v>0.245485</v>
       </c>
       <c r="H2">
-        <v>15.8521896325711</v>
+        <v>0.736455</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>25.44551236060506</v>
+        <v>0.429365784735</v>
       </c>
       <c r="R2">
-        <v>25.44551236060506</v>
+        <v>3.864292062615001</v>
       </c>
       <c r="S2">
-        <v>0.003452571646158301</v>
+        <v>5.507804872392965E-05</v>
       </c>
       <c r="T2">
-        <v>0.003452571646158301</v>
+        <v>5.507804872392965E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>15.8521896325711</v>
+        <v>0.245485</v>
       </c>
       <c r="H3">
-        <v>15.8521896325711</v>
+        <v>0.736455</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>2257.914518220682</v>
+        <v>35.11308281003333</v>
       </c>
       <c r="R3">
-        <v>2257.914518220682</v>
+        <v>316.0177452903</v>
       </c>
       <c r="S3">
-        <v>0.3063648919534878</v>
+        <v>0.00450422496299283</v>
       </c>
       <c r="T3">
-        <v>0.3063648919534878</v>
+        <v>0.004504224962992829</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>15.8521896325711</v>
+        <v>0.245485</v>
       </c>
       <c r="H4">
-        <v>15.8521896325711</v>
+        <v>0.736455</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>1927.857294308408</v>
+        <v>32.60158927382</v>
       </c>
       <c r="R4">
-        <v>1927.857294308408</v>
+        <v>293.41430346438</v>
       </c>
       <c r="S4">
-        <v>0.2615811125294392</v>
+        <v>0.004182056387211302</v>
       </c>
       <c r="T4">
-        <v>0.2615811125294392</v>
+        <v>0.004182056387211303</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>15.8521896325711</v>
+        <v>0.245485</v>
       </c>
       <c r="H5">
-        <v>15.8521896325711</v>
+        <v>0.736455</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>1980.161807864932</v>
+        <v>30.85922806424</v>
       </c>
       <c r="R5">
-        <v>1980.161807864932</v>
+        <v>277.73305257816</v>
       </c>
       <c r="S5">
-        <v>0.2686780449044752</v>
+        <v>0.003958550325462201</v>
       </c>
       <c r="T5">
-        <v>0.2686780449044752</v>
+        <v>0.003958550325462201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>15.8521896325711</v>
+        <v>0.245485</v>
       </c>
       <c r="H6">
-        <v>15.8521896325711</v>
+        <v>0.736455</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>834.8887234543853</v>
+        <v>13.15467745194167</v>
       </c>
       <c r="R6">
-        <v>834.8887234543853</v>
+        <v>118.392097067475</v>
       </c>
       <c r="S6">
-        <v>0.1132817879021622</v>
+        <v>0.001687451565552193</v>
       </c>
       <c r="T6">
-        <v>0.1132817879021622</v>
+        <v>0.001687451565552193</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,421 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>15.8521896325711</v>
+        <v>0.245485</v>
       </c>
       <c r="H7">
-        <v>15.8521896325711</v>
+        <v>0.736455</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.01511172246591349</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>343.7493276250867</v>
+        <v>5.646821409946666</v>
       </c>
       <c r="R7">
-        <v>343.7493276250867</v>
+        <v>50.82139268952</v>
       </c>
       <c r="S7">
-        <v>0.0466415910642773</v>
+        <v>0.0007243611759710367</v>
       </c>
       <c r="T7">
-        <v>0.0466415910642773</v>
+        <v>0.0007243611759710368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>15.99918866666667</v>
+      </c>
+      <c r="H8">
+        <v>47.99756600000001</v>
+      </c>
+      <c r="I8">
+        <v>0.9848882775340866</v>
+      </c>
+      <c r="J8">
+        <v>0.9848882775340865</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.749051</v>
+      </c>
+      <c r="N8">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P8">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q8">
+        <v>27.98339693662201</v>
+      </c>
+      <c r="R8">
+        <v>251.8505724295981</v>
+      </c>
+      <c r="S8">
+        <v>0.003589645367032649</v>
+      </c>
+      <c r="T8">
+        <v>0.003589645367032649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>15.99918866666667</v>
+      </c>
+      <c r="H9">
+        <v>47.99756600000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9848882775340866</v>
+      </c>
+      <c r="J9">
+        <v>0.9848882775340865</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N9">
+        <v>429.10666</v>
+      </c>
+      <c r="O9">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P9">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q9">
+        <v>2288.452803821063</v>
+      </c>
+      <c r="R9">
+        <v>20596.07523438957</v>
+      </c>
+      <c r="S9">
+        <v>0.2935574270526997</v>
+      </c>
+      <c r="T9">
+        <v>0.2935574270526996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>15.99918866666667</v>
+      </c>
+      <c r="H10">
+        <v>47.99756600000001</v>
+      </c>
+      <c r="I10">
+        <v>0.9848882775340866</v>
+      </c>
+      <c r="J10">
+        <v>0.9848882775340865</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>132.804812</v>
+      </c>
+      <c r="N10">
+        <v>398.414436</v>
+      </c>
+      <c r="O10">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P10">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q10">
+        <v>2124.769243029198</v>
+      </c>
+      <c r="R10">
+        <v>19122.92318726278</v>
+      </c>
+      <c r="S10">
+        <v>0.2725604788627901</v>
+      </c>
+      <c r="T10">
+        <v>0.2725604788627901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>15.99918866666667</v>
+      </c>
+      <c r="H11">
+        <v>47.99756600000001</v>
+      </c>
+      <c r="I11">
+        <v>0.9848882775340866</v>
+      </c>
+      <c r="J11">
+        <v>0.9848882775340865</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>125.707184</v>
+      </c>
+      <c r="N11">
+        <v>377.121552</v>
+      </c>
+      <c r="O11">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P11">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q11">
+        <v>2011.212953571382</v>
+      </c>
+      <c r="R11">
+        <v>18100.91658214244</v>
+      </c>
+      <c r="S11">
+        <v>0.2579937409762899</v>
+      </c>
+      <c r="T11">
+        <v>0.2579937409762898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>15.99918866666667</v>
+      </c>
+      <c r="H12">
+        <v>47.99756600000001</v>
+      </c>
+      <c r="I12">
+        <v>0.9848882775340866</v>
+      </c>
+      <c r="J12">
+        <v>0.9848882775340865</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N12">
+        <v>160.759445</v>
+      </c>
+      <c r="O12">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P12">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q12">
+        <v>857.3402301678746</v>
+      </c>
+      <c r="R12">
+        <v>7716.062071510871</v>
+      </c>
+      <c r="S12">
+        <v>0.1099776196636519</v>
+      </c>
+      <c r="T12">
+        <v>0.1099776196636519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>15.99918866666667</v>
+      </c>
+      <c r="H13">
+        <v>47.99756600000001</v>
+      </c>
+      <c r="I13">
+        <v>0.9848882775340866</v>
+      </c>
+      <c r="J13">
+        <v>0.9848882775340865</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N13">
+        <v>69.008144</v>
+      </c>
+      <c r="O13">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P13">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q13">
+        <v>368.0247717975005</v>
+      </c>
+      <c r="R13">
+        <v>3312.222946177505</v>
+      </c>
+      <c r="S13">
+        <v>0.0472093656116225</v>
+      </c>
+      <c r="T13">
+        <v>0.04720936561162251</v>
       </c>
     </row>
   </sheetData>
